--- a/data/Subset 1/Video Mosaic Grade 6 2 variables 11.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 2 variables 11.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Student Tag</t>
+          <t>S Tag</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -519,7 +519,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -542,7 +542,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Students</t>
+          <t>Ss</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -565,7 +565,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -588,7 +588,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -638,7 +638,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -684,7 +684,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -707,7 +707,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -730,7 +730,7 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -776,7 +776,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -822,7 +822,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -845,7 +845,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -914,7 +914,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -937,7 +937,7 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -960,7 +960,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -983,7 +983,7 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1052,7 +1052,7 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1098,7 +1098,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1121,7 +1121,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1167,7 +1167,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1190,7 +1190,7 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1236,7 +1236,7 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1259,7 +1259,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1282,7 +1282,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1328,7 +1328,7 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1489,7 +1489,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1512,7 +1512,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1535,7 +1535,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>RBD</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
